--- a/Labs/Lab2/1core/data.xlsx
+++ b/Labs/Lab2/1core/data.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amybu\Desktop\SCHOOL\EE156Spring2023\Labs\Lab2\1core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B7A54766-1450-4E19-8523-EDDABEC08F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46747DC8-61B0-429A-B24E-1B330AEEB008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$G$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$G$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$K$1:$Q$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="14">
   <si>
     <t>benchmark name</t>
   </si>
@@ -58,11 +60,20 @@
   <si>
     <t>npb-cg</t>
   </si>
+  <si>
+    <t>Peak Dynamic Power of processor (W)</t>
+  </si>
+  <si>
+    <t>CPI: rs_full</t>
+  </si>
+  <si>
+    <t>Total Energy Consumption (J)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,12 +652,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,7 +1222,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2352,6 +2362,1656 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>splash2-ocean.cont</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>48.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC42-4C85-BEA8-0CF34C92A288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>splash2-radix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC42-4C85-BEA8-0CF34C92A288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>splash2-barnes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC42-4C85-BEA8-0CF34C92A288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>npb-is</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$29:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC42-4C85-BEA8-0CF34C92A288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>npb-cg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EC42-4C85-BEA8-0CF34C92A288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="964395152"/>
+        <c:axId val="964393072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="964395152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Reservation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Station Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964393072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964393072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percent time rs_full</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964395152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>splash2-ocean.cont</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6D4-416B-BA16-3A6B5E47087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>splash2-radix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6D4-416B-BA16-3A6B5E47087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>splash2-barnes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A6D4-416B-BA16-3A6B5E47087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>npb-is</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A6D4-416B-BA16-3A6B5E47087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>npb-cg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$38:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A6D4-416B-BA16-3A6B5E47087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="964395152"/>
+        <c:axId val="964393072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="964395152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Reservation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Station Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964393072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964393072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Energy Consumption (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964395152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2432,6 +4092,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3464,20 +5204,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3504,16 +6276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3535,6 +6307,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBDE3BE-7BC9-4792-A93D-F1D66225DA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED48D51-18C6-41FB-9552-55B06A9B24CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3839,11 +6687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E46"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3853,7 +6701,7 @@
     <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3867,10 +6715,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3886,8 +6740,14 @@
       <c r="E2">
         <v>26.925799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3903,8 +6763,14 @@
       <c r="E3">
         <v>24.736999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>61.92</v>
+      </c>
+      <c r="G3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3920,8 +6786,14 @@
       <c r="E4">
         <v>17.204000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>48.61</v>
+      </c>
+      <c r="G4">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3937,8 +6809,14 @@
       <c r="E5">
         <v>26.8095</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>53.39</v>
+      </c>
+      <c r="G5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3954,8 +6832,14 @@
       <c r="E6">
         <v>26.912800000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>7.9</v>
+      </c>
+      <c r="G6">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3971,8 +6855,14 @@
       <c r="E7">
         <v>18.5641</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>54.57</v>
+      </c>
+      <c r="G7">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3988,8 +6878,14 @@
       <c r="E8">
         <v>26.927900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2.72</v>
+      </c>
+      <c r="G8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4005,8 +6901,14 @@
       <c r="E9">
         <v>21.253799999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>56.82</v>
+      </c>
+      <c r="G9">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4022,8 +6924,14 @@
       <c r="E10">
         <v>26.928699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4039,8 +6947,14 @@
       <c r="E11">
         <v>17.812200000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4056,8 +6970,14 @@
       <c r="E12">
         <v>17.713899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>94.52</v>
+      </c>
+      <c r="G12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4073,8 +6993,14 @@
       <c r="E13">
         <v>16.888000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>89.6</v>
+      </c>
+      <c r="G13">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4090,8 +7016,14 @@
       <c r="E14">
         <v>17.775600000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>95.05</v>
+      </c>
+      <c r="G14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4107,8 +7039,14 @@
       <c r="E15">
         <v>17.7913</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>94.97</v>
+      </c>
+      <c r="G15">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4124,8 +7062,14 @@
       <c r="E16">
         <v>17.300999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>91.01</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4141,8 +7085,14 @@
       <c r="E17">
         <v>17.8094</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>95.36</v>
+      </c>
+      <c r="G17">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4158,8 +7108,14 @@
       <c r="E18">
         <v>17.532900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>93.51</v>
+      </c>
+      <c r="G18">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4175,8 +7131,14 @@
       <c r="E19">
         <v>17.812200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>95.28</v>
+      </c>
+      <c r="G19">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4192,8 +7154,14 @@
       <c r="E20">
         <v>29.0213</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4209,8 +7177,14 @@
       <c r="E21">
         <v>24.706299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>75.64</v>
+      </c>
+      <c r="G21">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4226,8 +7200,14 @@
       <c r="E22">
         <v>18.5001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>60.18</v>
+      </c>
+      <c r="G22">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4243,8 +7223,14 @@
       <c r="E23">
         <v>28.7012</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>61.02</v>
+      </c>
+      <c r="G23">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4260,8 +7246,14 @@
       <c r="E24">
         <v>29.0062</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>21.71</v>
+      </c>
+      <c r="G24">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4277,8 +7269,14 @@
       <c r="E25">
         <v>20.687200000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="G25">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4294,8 +7292,14 @@
       <c r="E26">
         <v>29.0169</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1.69</v>
+      </c>
+      <c r="G26">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4311,8 +7315,14 @@
       <c r="E27">
         <v>22.252500000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="G27">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4328,8 +7338,14 @@
       <c r="E28">
         <v>29.0198</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4345,8 +7361,14 @@
       <c r="E29">
         <v>29.081399999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4362,8 +7384,14 @@
       <c r="E30">
         <v>26.985199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>11.27</v>
+      </c>
+      <c r="G30">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -4379,8 +7407,14 @@
       <c r="E31">
         <v>18.4251</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>29.44</v>
+      </c>
+      <c r="G31">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4396,8 +7430,14 @@
       <c r="E32">
         <v>28.385100000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G32">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -4413,8 +7453,14 @@
       <c r="E33">
         <v>28.94</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -4430,8 +7476,14 @@
       <c r="E34">
         <v>20.561800000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>23.16</v>
+      </c>
+      <c r="G34">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -4447,8 +7499,14 @@
       <c r="E35">
         <v>29.044699999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -4464,8 +7522,14 @@
       <c r="E36">
         <v>24.161200000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>25.46</v>
+      </c>
+      <c r="G36">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4481,8 +7545,14 @@
       <c r="E37">
         <v>29.0687</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -4498,8 +7568,14 @@
       <c r="E38">
         <v>33.067700000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -4515,8 +7591,14 @@
       <c r="E39">
         <v>28.456299999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="G39">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -4532,8 +7614,14 @@
       <c r="E40">
         <v>17.368600000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G40">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4549,8 +7637,14 @@
       <c r="E41">
         <v>31.966699999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>72.45</v>
+      </c>
+      <c r="G41">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4566,8 +7660,14 @@
       <c r="E42">
         <v>33.064599999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>2.62</v>
+      </c>
+      <c r="G42">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4583,8 +7683,14 @@
       <c r="E43">
         <v>20.255800000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>47.98</v>
+      </c>
+      <c r="G43">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -4600,8 +7706,14 @@
       <c r="E44">
         <v>33.067399999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -4617,8 +7729,14 @@
       <c r="E45">
         <v>23.5657</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>48.24</v>
+      </c>
+      <c r="G45">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -4633,6 +7751,12 @@
       </c>
       <c r="E46">
         <v>33.067300000000003</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
@@ -4644,343 +7768,913 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17025947-37F2-4958-965D-D1C9E9D32CFB}">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.32</v>
+      </c>
+      <c r="E2">
+        <v>17.204000000000001</v>
+      </c>
+      <c r="F2">
+        <v>48.61</v>
+      </c>
+      <c r="G2">
+        <v>5.15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0.32</v>
+      </c>
+      <c r="O2">
+        <v>17.368600000000001</v>
+      </c>
+      <c r="P2">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.42</v>
+      </c>
+      <c r="E3">
+        <v>18.5641</v>
+      </c>
+      <c r="F3">
+        <v>54.57</v>
+      </c>
+      <c r="G3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0.53</v>
+      </c>
+      <c r="O3">
+        <v>20.255800000000001</v>
+      </c>
+      <c r="P3">
+        <v>47.98</v>
+      </c>
+      <c r="Q3">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.62</v>
+      </c>
+      <c r="E4">
+        <v>21.253799999999998</v>
+      </c>
+      <c r="F4">
+        <v>56.82</v>
+      </c>
+      <c r="G4">
+        <v>3.14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>0.77</v>
+      </c>
+      <c r="O4">
+        <v>23.5657</v>
+      </c>
+      <c r="P4">
+        <v>48.24</v>
+      </c>
+      <c r="Q4">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.88</v>
+      </c>
+      <c r="E5">
+        <v>24.736999999999998</v>
+      </c>
+      <c r="F5">
+        <v>61.92</v>
+      </c>
+      <c r="G5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>1.28</v>
+      </c>
+      <c r="O5">
+        <v>28.456299999999999</v>
+      </c>
+      <c r="P5">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="Q5">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E6">
+        <v>26.8095</v>
+      </c>
+      <c r="F6">
+        <v>53.39</v>
+      </c>
+      <c r="G6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>32</v>
+      </c>
+      <c r="N6">
+        <v>1.82</v>
+      </c>
+      <c r="O6">
+        <v>31.966699999999999</v>
+      </c>
+      <c r="P6">
+        <v>72.45</v>
+      </c>
+      <c r="Q6">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>26.912800000000001</v>
+      </c>
+      <c r="F7">
+        <v>7.9</v>
+      </c>
+      <c r="G7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>1.98</v>
+      </c>
+      <c r="O7">
+        <v>33.064599999999999</v>
+      </c>
+      <c r="P7">
+        <v>2.62</v>
+      </c>
+      <c r="Q7">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E8">
+        <v>26.927900000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.72</v>
+      </c>
+      <c r="G8">
+        <v>2.23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>1.99</v>
+      </c>
+      <c r="O8">
+        <v>33.067399999999999</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E9">
+        <v>26.928699999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>98</v>
+      </c>
+      <c r="N9">
+        <v>1.99</v>
+      </c>
+      <c r="O9">
+        <v>33.067300000000003</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E10">
+        <v>26.925799999999999</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>128</v>
+      </c>
+      <c r="N10">
+        <v>1.99</v>
+      </c>
+      <c r="O10">
+        <v>33.067700000000002</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="K1:Q10" xr:uid="{17025947-37F2-4958-965D-D1C9E9D32CFB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:Q10">
+      <sortCondition ref="M1:M10"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>0.32</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>17.204000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>48.61</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>0.42</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>18.5641</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>54.57</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.62</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>21.253799999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>56.82</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>0.88</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>24.736999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>61.92</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>26.8095</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>53.39</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>26.912800000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>64</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>26.927900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>98</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>26.928699999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
         <v>128</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>26.925799999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>0.36</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>16.888000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>0.4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>17.300999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <v>91.01</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>0.43</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>17.532900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>93.51</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0.44</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>17.713899999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>94.52</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>0.45</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>17.775600000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>95.05</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>48</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>0.45</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>17.7913</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>94.97</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>64</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>0.45</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>17.8094</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>95.36</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>98</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>0.45</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>17.812200000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="4">
+        <v>95.28</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>128</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>0.45</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>17.812200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4996,297 +8690,405 @@
       <c r="E20" s="3">
         <v>18.5001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>60.18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>20.687200000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="G21" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>0.66</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>22.252500000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="G22" s="5">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>16</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>0.83</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>24.706299999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>75.64</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>32</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>1.24</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>28.7012</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>61.02</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>48</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>1.28</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>29.0062</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>21.71</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>64</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>1.28</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>29.0169</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>98</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>1.29</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>29.0198</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7">
         <v>128</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>1.29</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>29.0213</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>0.44</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>18.4251</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>29.44</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>0.62</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>20.561800000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>23.16</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>0.91</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>24.161200000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>25.46</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>16</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32">
         <v>1.34</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>26.985199999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>1.61</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>28.385100000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>48</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>1.72</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>28.94</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
         <v>64</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>1.74</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>29.044699999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
         <v>98</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36">
         <v>1.74</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>29.0687</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>128</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>1.75</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>29.081399999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -5302,141 +9104,195 @@
       <c r="E38" s="3">
         <v>17.368600000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G38" s="3">
+        <v>24.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>0.53</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>20.255800000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="4">
+        <v>47.98</v>
+      </c>
+      <c r="G39" s="5">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <v>0.77</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>23.5657</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <v>48.24</v>
+      </c>
+      <c r="G40" s="5">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
         <v>16</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>1.28</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>28.456299999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="G41" s="5">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
         <v>32</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>1.82</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>31.966699999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="4">
+        <v>72.45</v>
+      </c>
+      <c r="G42" s="5">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
         <v>48</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>1.98</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>33.064599999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
         <v>64</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44">
         <v>1.99</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>33.067399999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
         <v>98</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45">
         <v>1.99</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>33.067300000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7">
         <v>128</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>1.99</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>33.067700000000002</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
